--- a/Input/Inputfile.xlsx
+++ b/Input/Inputfile.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sathishkumar\eclipse-workspace\Seleniumjunebesantannanagar\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BB9B7E-F5DC-4881-9BC7-5C908F7D9B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CB8BDF-6FE0-4865-96EF-467F10C5E3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FBLogin" sheetId="1" r:id="rId1"/>
+    <sheet name="Input" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,12 +26,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>Kumar.sathish189@gmail.com</t>
   </si>
   <si>
     <t>Admin@123</t>
+  </si>
+  <si>
+    <t>xx`</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Testcase</t>
+  </si>
+  <si>
+    <t>TC_01</t>
+  </si>
+  <si>
+    <t>kumar.sathish189@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -359,9 +378,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -403,6 +422,85 @@
         <v>1</v>
       </c>
     </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6278FFD-08CA-4ADE-BFD0-EB44FAD25602}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
